--- a/EquityHedging/data/returns_data/innocap_liq_alts_data.xlsx
+++ b/EquityHedging/data/returns_data/innocap_liq_alts_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvg9hxp\Documents\Projects\RMP\EquityHedging\data\returns_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB1734DD-2D67-4659-A13A-858504D60A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E03D2DA0-8601-46AD-BC53-1376CA7709DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="1395" windowWidth="23040" windowHeight="12300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="returns" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>1907 Campbell TF</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>1907 Kepos RP</t>
-  </si>
-  <si>
-    <t>Dates</t>
   </si>
 </sst>
 </file>
@@ -130,48 +127,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="166" formatCode="\$#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="\$#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -519,24 +480,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ALM125"/>
+  <dimension ref="A1:ALM130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A15"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1001" width="21.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1001" width="22.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -562,7 +520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>41182</v>
       </c>
@@ -570,7 +528,7 @@
         <v>-1.33034610769189E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>41213</v>
       </c>
@@ -578,7 +536,7 @@
         <v>-6.2361533149886102E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>41243</v>
       </c>
@@ -586,7 +544,7 @@
         <v>4.4668300200327603E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>41274</v>
       </c>
@@ -594,7 +552,7 @@
         <v>0.35743072144444599</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>41305</v>
       </c>
@@ -602,7 +560,7 @@
         <v>0.579484670891244</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>41333</v>
       </c>
@@ -610,7 +568,7 @@
         <v>0.17305759000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>41364</v>
       </c>
@@ -618,7 +576,7 @@
         <v>0.10932005148598201</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>41394</v>
       </c>
@@ -626,7 +584,7 @@
         <v>6.0919996222033701E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>41425</v>
       </c>
@@ -634,7 +592,7 @@
         <v>5.3724404005776299E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>41455</v>
       </c>
@@ -642,7 +600,7 @@
         <v>-1.9765887337344999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>41486</v>
       </c>
@@ -650,7 +608,7 @@
         <v>-1.9642963068201999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41517</v>
       </c>
@@ -658,7 +616,7 @@
         <v>-4.6143838453611002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>41547</v>
       </c>
@@ -666,7 +624,7 @@
         <v>-1.49261235232978E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>41578</v>
       </c>
@@ -674,7 +632,7 @@
         <v>-1.40910628982879E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>41608</v>
       </c>
@@ -685,7 +643,7 @@
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>41639</v>
       </c>
@@ -696,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>41670</v>
       </c>
@@ -707,7 +665,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>41698</v>
       </c>
@@ -718,7 +676,7 @@
         <v>-5.5899999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>41729</v>
       </c>
@@ -729,7 +687,7 @@
         <v>-1.72E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>41759</v>
       </c>
@@ -740,7 +698,7 @@
         <v>-4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>41790</v>
       </c>
@@ -751,7 +709,7 @@
         <v>-1.8499999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>41820</v>
       </c>
@@ -762,7 +720,7 @@
         <v>-2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>41851</v>
       </c>
@@ -773,7 +731,7 @@
         <v>1.24E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>41882</v>
       </c>
@@ -784,7 +742,7 @@
         <v>-1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>41912</v>
       </c>
@@ -795,7 +753,7 @@
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>41943</v>
       </c>
@@ -806,7 +764,7 @@
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>41973</v>
       </c>
@@ -817,7 +775,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>42004</v>
       </c>
@@ -828,7 +786,7 @@
         <v>1.29E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>42035</v>
       </c>
@@ -839,7 +797,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>42063</v>
       </c>
@@ -850,7 +808,7 @@
         <v>2.3900000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>42094</v>
       </c>
@@ -861,7 +819,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>42124</v>
       </c>
@@ -872,7 +830,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>42155</v>
       </c>
@@ -883,7 +841,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>42185</v>
       </c>
@@ -894,7 +852,7 @@
         <v>-1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>42216</v>
       </c>
@@ -905,7 +863,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>42247</v>
       </c>
@@ -916,7 +874,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>42277</v>
       </c>
@@ -927,7 +885,7 @@
         <v>3.27E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>42308</v>
       </c>
@@ -938,7 +896,7 @@
         <v>-5.8099999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>42338</v>
       </c>
@@ -949,7 +907,7 @@
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>42369</v>
       </c>
@@ -960,7 +918,7 @@
         <v>-3.3300000000000003E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>42400</v>
       </c>
@@ -971,7 +929,7 @@
         <v>-8.6E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42429</v>
       </c>
@@ -982,7 +940,7 @@
         <v>-1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42460</v>
       </c>
@@ -993,7 +951,7 @@
         <v>-8.1000000000000013E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>42490</v>
       </c>
@@ -1004,7 +962,7 @@
         <v>-3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>42521</v>
       </c>
@@ -1015,7 +973,7 @@
         <v>-2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>42551</v>
       </c>
@@ -1026,7 +984,7 @@
         <v>-1.37E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>42582</v>
       </c>
@@ -1037,7 +995,7 @@
         <v>-2.24E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>42613</v>
       </c>
@@ -1051,7 +1009,7 @@
         <v>-8.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>42643</v>
       </c>
@@ -1065,7 +1023,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>42674</v>
       </c>
@@ -1082,7 +1040,7 @@
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>42704</v>
       </c>
@@ -1099,7 +1057,7 @@
         <v>-1.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>42735</v>
       </c>
@@ -1116,7 +1074,7 @@
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>42766</v>
       </c>
@@ -1133,7 +1091,7 @@
         <v>-1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>42794</v>
       </c>
@@ -1153,7 +1111,7 @@
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>42825</v>
       </c>
@@ -1173,7 +1131,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>42855</v>
       </c>
@@ -1193,7 +1151,7 @@
         <v>-1.26E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>42886</v>
       </c>
@@ -1213,7 +1171,7 @@
         <v>-2.23E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>42916</v>
       </c>
@@ -1233,7 +1191,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>42947</v>
       </c>
@@ -1253,7 +1211,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>42978</v>
       </c>
@@ -1273,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>43008</v>
       </c>
@@ -1293,7 +1251,7 @@
         <v>-2.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>43039</v>
       </c>
@@ -1316,7 +1274,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>43069</v>
       </c>
@@ -1339,7 +1297,7 @@
         <v>-2.7900000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>43100</v>
       </c>
@@ -1362,7 +1320,7 @@
         <v>4.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>43131</v>
       </c>
@@ -1385,7 +1343,7 @@
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>43159</v>
       </c>
@@ -1408,7 +1366,7 @@
         <v>-2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>43190</v>
       </c>
@@ -1431,7 +1389,7 @@
         <v>3.8399999999999997E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>43220</v>
       </c>
@@ -1454,7 +1412,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>43251</v>
       </c>
@@ -1477,7 +1435,7 @@
         <v>-4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>43281</v>
       </c>
@@ -1500,7 +1458,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>43312</v>
       </c>
@@ -1523,7 +1481,7 @@
         <v>-6.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>43343</v>
       </c>
@@ -1546,7 +1504,7 @@
         <v>-4.1500000000000002E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>43373</v>
       </c>
@@ -1569,7 +1527,7 @@
         <v>2.6200000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>43404</v>
       </c>
@@ -1592,7 +1550,7 @@
         <v>-8.6E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>43434</v>
       </c>
@@ -1615,7 +1573,7 @@
         <v>-2.75E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>43465</v>
       </c>
@@ -1638,7 +1596,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43496</v>
       </c>
@@ -1661,7 +1619,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>43524</v>
       </c>
@@ -1684,7 +1642,7 @@
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>43555</v>
       </c>
@@ -1707,7 +1665,7 @@
         <v>-2.8E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>43585</v>
       </c>
@@ -1730,7 +1688,7 @@
         <v>3.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>43616</v>
       </c>
@@ -1753,7 +1711,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>43646</v>
       </c>
@@ -1776,7 +1734,7 @@
         <v>-8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>43677</v>
       </c>
@@ -1799,7 +1757,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>43708</v>
       </c>
@@ -1822,7 +1780,7 @@
         <v>-1.7899999999999999E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>43738</v>
       </c>
@@ -1845,7 +1803,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>43769</v>
       </c>
@@ -1868,7 +1826,7 @@
         <v>-3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>43799</v>
       </c>
@@ -1891,7 +1849,7 @@
         <v>3.3399999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>43830</v>
       </c>
@@ -1914,7 +1872,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>43861</v>
       </c>
@@ -1937,7 +1895,7 @@
         <v>1.9599999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>43890</v>
       </c>
@@ -1960,7 +1918,7 @@
         <v>-1.9900000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>43921</v>
       </c>
@@ -1983,7 +1941,7 @@
         <v>-9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>43951</v>
       </c>
@@ -2006,7 +1964,7 @@
         <v>-2.93E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>43982</v>
       </c>
@@ -2029,7 +1987,7 @@
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>44012</v>
       </c>
@@ -2052,7 +2010,7 @@
         <v>-3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>44043</v>
       </c>
@@ -2075,7 +2033,7 @@
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>44074</v>
       </c>
@@ -2098,7 +2056,7 @@
         <v>-8.1000000000000013E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>44104</v>
       </c>
@@ -2121,7 +2079,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>44135</v>
       </c>
@@ -2144,7 +2102,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>44165</v>
       </c>
@@ -2170,7 +2128,7 @@
         <v>-2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>44196</v>
       </c>
@@ -2196,7 +2154,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>44227</v>
       </c>
@@ -2222,7 +2180,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>44255</v>
       </c>
@@ -2248,7 +2206,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>44286</v>
       </c>
@@ -2277,7 +2235,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>44316</v>
       </c>
@@ -2306,7 +2264,7 @@
         <v>2.7300000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>44347</v>
       </c>
@@ -2335,7 +2293,7 @@
         <v>3.2899999999999999E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>44377</v>
       </c>
@@ -2364,7 +2322,7 @@
         <v>-3.8600000000000002E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>44408</v>
       </c>
@@ -2393,7 +2351,7 @@
         <v>-1.35E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>44439</v>
       </c>
@@ -2422,7 +2380,7 @@
         <v>-2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>44469</v>
       </c>
@@ -2451,7 +2409,7 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>44500</v>
       </c>
@@ -2480,7 +2438,7 @@
         <v>-8.6E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>44530</v>
       </c>
@@ -2509,7 +2467,7 @@
         <v>-3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>44561</v>
       </c>
@@ -2538,7 +2496,7 @@
         <v>-2.3E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>44592</v>
       </c>
@@ -2567,7 +2525,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>44620</v>
       </c>
@@ -2596,7 +2554,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>44651</v>
       </c>
@@ -2625,7 +2583,7 @@
         <v>-1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>44681</v>
       </c>
@@ -2654,7 +2612,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>44712</v>
       </c>
@@ -2683,7 +2641,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>44742</v>
       </c>
@@ -2712,7 +2670,7 @@
         <v>-3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>44773</v>
       </c>
@@ -2741,7 +2699,7 @@
         <v>-1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>44804</v>
       </c>
@@ -2770,7 +2728,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>44834</v>
       </c>
@@ -2799,7 +2757,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>44865</v>
       </c>
@@ -2828,7 +2786,7 @@
         <v>-1.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>44895</v>
       </c>
@@ -2857,7 +2815,7 @@
         <v>-1.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>44926</v>
       </c>
@@ -2886,47 +2844,162 @@
         <v>2.7300000000000001E-2</v>
       </c>
     </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B126" s="1">
+        <v>-2.41E-2</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="D126" s="1">
+        <v>-5.0599999999999999E-2</v>
+      </c>
+      <c r="E126" s="1">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="F126" s="1">
+        <v>-1.9900000000000001E-2</v>
+      </c>
+      <c r="G126" s="1">
+        <v>-1.2200000000000001E-2</v>
+      </c>
+      <c r="H126" s="1">
+        <v>1.21E-2</v>
+      </c>
+      <c r="I126" s="1">
+        <v>2.6100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B127" s="1">
+        <v>4.07E-2</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="D127" s="1">
+        <v>-1.66E-2</v>
+      </c>
+      <c r="E127" s="1">
+        <v>-2.9700000000000001E-2</v>
+      </c>
+      <c r="F127" s="1">
+        <v>5.3E-3</v>
+      </c>
+      <c r="G127" s="1">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="H127" s="1">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I127" s="1">
+        <v>1.9699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>45016</v>
+      </c>
+      <c r="B128" s="1">
+        <v>-4.82E-2</v>
+      </c>
+      <c r="C128" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="D128" s="1">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="E128" s="1">
+        <v>-8.0500000000000002E-2</v>
+      </c>
+      <c r="F128" s="1">
+        <v>-7.4299999999999991E-2</v>
+      </c>
+      <c r="G128" s="1">
+        <v>-1.6999999999999999E-3</v>
+      </c>
+      <c r="H128" s="1">
+        <v>-7.8000000000000014E-3</v>
+      </c>
+      <c r="I128" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>45046</v>
+      </c>
+      <c r="B129" s="1">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D129" s="1">
+        <v>-3.8699999999999998E-2</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="F129" s="1">
+        <v>-1E-4</v>
+      </c>
+      <c r="G129" s="1">
+        <v>-1.15E-2</v>
+      </c>
+      <c r="H129" s="1">
+        <v>2.8E-3</v>
+      </c>
+      <c r="I129" s="1">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>45077</v>
+      </c>
+      <c r="B130" s="1">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D130" s="1">
+        <v>-3.1300000000000001E-2</v>
+      </c>
+      <c r="E130" s="1">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="F130" s="1">
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="G130" s="1">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="H130" s="1">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="I130" s="1">
+        <v>-1.78E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1 A16:A125">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="11">
+  <conditionalFormatting sqref="A1:A130">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="3">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:I125">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="lessThan">
+  <conditionalFormatting sqref="B2:I130">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A15">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="7">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:I4 B10:I15 B5:C9 E5:I9">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D9">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2936,24 +3009,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:ALM125"/>
+  <dimension ref="A1:ALM130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A15"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1001" width="21.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1001" width="22.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2979,7 +3049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>41182</v>
       </c>
@@ -2987,7 +3057,7 @@
         <v>65000000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>41213</v>
       </c>
@@ -2995,7 +3065,7 @@
         <v>64991352.750399999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>41243</v>
       </c>
@@ -3003,7 +3073,7 @@
         <v>64586056.710500002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>41274</v>
       </c>
@@ -3011,7 +3081,7 @@
         <v>67471006.080400005</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>41305</v>
       </c>
@@ -3019,7 +3089,7 @@
         <v>91587216.460199997</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>41333</v>
       </c>
@@ -3027,7 +3097,7 @@
         <v>124660604.4498</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>41364</v>
       </c>
@@ -3035,7 +3105,7 @@
         <v>146234067.97999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>41394</v>
       </c>
@@ -3043,7 +3113,7 @@
         <v>162220383.82080001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>41425</v>
       </c>
@@ -3051,7 +3121,7 @@
         <v>172102848.9905</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>41455</v>
       </c>
@@ -3059,7 +3129,7 @@
         <v>181348971.97979999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>41486</v>
       </c>
@@ -3067,7 +3137,7 @@
         <v>177764448.6313</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41517</v>
       </c>
@@ -3075,7 +3145,7 @@
         <v>174272628.132</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>41547</v>
       </c>
@@ -3083,7 +3153,7 @@
         <v>166231020.13229999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>41578</v>
       </c>
@@ -3091,7 +3161,7 @@
         <v>163749835.39219999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>41608</v>
       </c>
@@ -3102,7 +3172,7 @@
         <v>165197936.44034901</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>41639</v>
       </c>
@@ -3113,7 +3183,7 @@
         <v>165714221.96076599</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>41670</v>
       </c>
@@ -3124,7 +3194,7 @@
         <v>166019486.985109</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>41698</v>
       </c>
@@ -3135,7 +3205,7 @@
         <v>156716754.169723</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>41729</v>
       </c>
@@ -3146,7 +3216,7 @@
         <v>153925827.30243599</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>41759</v>
       </c>
@@ -3157,7 +3227,7 @@
         <v>146714519.67882001</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>41790</v>
       </c>
@@ -3168,7 +3238,7 @@
         <v>144001466.266909</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>41820</v>
       </c>
@@ -3179,7 +3249,7 @@
         <v>143677425.12755299</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>41851</v>
       </c>
@@ -3190,7 +3260,7 @@
         <v>144719432.27094901</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>41882</v>
       </c>
@@ -3201,7 +3271,7 @@
         <v>143920930.71220899</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>41912</v>
       </c>
@@ -3212,7 +3282,7 @@
         <v>147887956.97419301</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>41943</v>
       </c>
@@ -3223,7 +3293,7 @@
         <v>145337337.35804099</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>41973</v>
       </c>
@@ -3234,7 +3304,7 @@
         <v>159346871.431898</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>42004</v>
       </c>
@@ -3245,7 +3315,7 @@
         <v>164040205.68654299</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>42035</v>
       </c>
@@ -3256,7 +3326,7 @@
         <v>171259742.63623899</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>42063</v>
       </c>
@@ -3267,7 +3337,7 @@
         <v>175912220.62575299</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>42094</v>
       </c>
@@ -3278,7 +3348,7 @@
         <v>183302999.38211</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>42124</v>
       </c>
@@ -3289,7 +3359,7 @@
         <v>181751436.580731</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>42155</v>
       </c>
@@ -3300,7 +3370,7 @@
         <v>182657829.031903</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>42185</v>
       </c>
@@ -3311,7 +3381,7 @@
         <v>179360774.37132001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>42216</v>
       </c>
@@ -3322,7 +3392,7 @@
         <v>188929234.02980101</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>42247</v>
       </c>
@@ -3333,7 +3403,7 @@
         <v>208679296.68239999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>42277</v>
       </c>
@@ -3344,7 +3414,7 @@
         <v>213252779.10775501</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>42308</v>
       </c>
@@ -3355,7 +3425,7 @@
         <v>200230635.25035399</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>42338</v>
       </c>
@@ -3366,7 +3436,7 @@
         <v>204136679.30593199</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>42369</v>
       </c>
@@ -3377,7 +3447,7 @@
         <v>197650620.13538799</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>42400</v>
       </c>
@@ -3388,7 +3458,7 @@
         <v>196645759.090303</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42429</v>
       </c>
@@ -3399,7 +3469,7 @@
         <v>193861658.313912</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42460</v>
       </c>
@@ -3410,7 +3480,7 @@
         <v>193262940.99645501</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>42490</v>
       </c>
@@ -3421,7 +3491,7 @@
         <v>185974168.20027199</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>42521</v>
       </c>
@@ -3432,7 +3502,7 @@
         <v>181097161.464939</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>42551</v>
       </c>
@@ -3443,7 +3513,7 @@
         <v>180578079.25836101</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>42582</v>
       </c>
@@ -3454,7 +3524,7 @@
         <v>174677016.866411</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>42613</v>
       </c>
@@ -3468,7 +3538,7 @@
         <v>39668324.680352204</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>42643</v>
       </c>
@@ -3482,7 +3552,7 @@
         <v>40021453.688568801</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>42674</v>
       </c>
@@ -3499,7 +3569,7 @@
         <v>76738978.601659104</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>42704</v>
       </c>
@@ -3516,7 +3586,7 @@
         <v>75773735.672125906</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>42735</v>
       </c>
@@ -3533,7 +3603,7 @@
         <v>76862864.757787198</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>42766</v>
       </c>
@@ -3550,7 +3620,7 @@
         <v>201834460.33123699</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>42794</v>
       </c>
@@ -3570,7 +3640,7 @@
         <v>206128781.24685901</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>42825</v>
       </c>
@@ -3590,7 +3660,7 @@
         <v>200254848.597572</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>42855</v>
       </c>
@@ -3610,7 +3680,7 @@
         <v>197571525.32241401</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>42886</v>
       </c>
@@ -3630,7 +3700,7 @@
         <v>193172410.23181599</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>42916</v>
       </c>
@@ -3650,7 +3720,7 @@
         <v>195325828.32549199</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>42947</v>
       </c>
@@ -3670,7 +3740,7 @@
         <v>197090507.939753</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>42978</v>
       </c>
@@ -3690,7 +3760,7 @@
         <v>201968393.459694</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>43008</v>
       </c>
@@ -3710,7 +3780,7 @@
         <v>197102778.72623199</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>43039</v>
       </c>
@@ -3733,7 +3803,7 @@
         <v>199426689.938346</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>43069</v>
       </c>
@@ -3756,7 +3826,7 @@
         <v>193853885.33218199</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>43100</v>
       </c>
@@ -3779,7 +3849,7 @@
         <v>202467237.959831</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>43131</v>
       </c>
@@ -3802,7 +3872,7 @@
         <v>205905824.51087099</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>43159</v>
       </c>
@@ -3825,7 +3895,7 @@
         <v>201732521.730205</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>43190</v>
       </c>
@@ -3848,7 +3918,7 @@
         <v>204070893.34154001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>43220</v>
       </c>
@@ -3871,7 +3941,7 @@
         <v>205198633.08114699</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>43251</v>
       </c>
@@ -3894,7 +3964,7 @@
         <v>195015299.93296</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>43281</v>
       </c>
@@ -3917,7 +3987,7 @@
         <v>193726109.09730601</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>43312</v>
       </c>
@@ -3940,7 +4010,7 @@
         <v>192337821.28653201</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>43343</v>
       </c>
@@ -3963,7 +4033,7 @@
         <v>184628961.93014199</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>43373</v>
       </c>
@@ -3986,7 +4056,7 @@
         <v>189363038.12582099</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>43404</v>
       </c>
@@ -4009,7 +4079,7 @@
         <v>187719756.99275601</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>43434</v>
       </c>
@@ -4032,7 +4102,7 @@
         <v>182420251.35087001</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>43465</v>
       </c>
@@ -4055,7 +4125,7 @@
         <v>182896127.331146</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43496</v>
       </c>
@@ -4078,7 +4148,7 @@
         <v>184868573.31759599</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>43524</v>
       </c>
@@ -4101,7 +4171,7 @@
         <v>187800581.318286</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>43555</v>
       </c>
@@ -4124,7 +4194,7 @@
         <v>187235694.20908201</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>43585</v>
       </c>
@@ -4147,7 +4217,7 @@
         <v>193028635.394766</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>43616</v>
       </c>
@@ -4170,7 +4240,7 @@
         <v>192639354.03287101</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>43646</v>
       </c>
@@ -4193,7 +4263,7 @@
         <v>191104481.09758401</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>43677</v>
       </c>
@@ -4216,7 +4286,7 @@
         <v>192396496.361265</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>43708</v>
       </c>
@@ -4239,7 +4309,7 @@
         <v>189050653.310945</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>43738</v>
       </c>
@@ -4262,7 +4332,7 @@
         <v>198479540.31757</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>43769</v>
       </c>
@@ -4285,7 +4355,7 @@
         <v>198341549.48024401</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>43799</v>
       </c>
@@ -4308,7 +4378,7 @@
         <v>203670680.40319699</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>43830</v>
       </c>
@@ -4331,7 +4401,7 @@
         <v>204320042.884536</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>43861</v>
       </c>
@@ -4354,7 +4424,7 @@
         <v>208586865.64558899</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>43890</v>
       </c>
@@ -4377,7 +4447,7 @@
         <v>203927370.21086901</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>43921</v>
       </c>
@@ -4400,7 +4470,7 @@
         <v>203087846.34527099</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>43951</v>
       </c>
@@ -4423,7 +4493,7 @@
         <v>196524608.77503401</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>43982</v>
       </c>
@@ -4446,7 +4516,7 @@
         <v>198108668.43888101</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>44012</v>
       </c>
@@ -4469,7 +4539,7 @@
         <v>192115240.44472301</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>44043</v>
       </c>
@@ -4492,7 +4562,7 @@
         <v>197266560.97488001</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>44074</v>
       </c>
@@ -4515,7 +4585,7 @@
         <v>195698310.22353601</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>44104</v>
       </c>
@@ -4538,7 +4608,7 @@
         <v>193976767.831146</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>44135</v>
       </c>
@@ -4561,7 +4631,7 @@
         <v>188244931.418901</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>44165</v>
       </c>
@@ -4587,7 +4657,7 @@
         <v>187112470.70618099</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>44196</v>
       </c>
@@ -4613,7 +4683,7 @@
         <v>193823211.152015</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>44227</v>
       </c>
@@ -4639,7 +4709,7 @@
         <v>194323142.93095699</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>44255</v>
       </c>
@@ -4665,7 +4735,7 @@
         <v>196526679.96110001</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>44286</v>
       </c>
@@ -4694,7 +4764,7 @@
         <v>205734758.996968</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>44316</v>
       </c>
@@ -4723,7 +4793,7 @@
         <v>211472721.47192299</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>44347</v>
       </c>
@@ -4752,7 +4822,7 @@
         <v>217824037.39747101</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>44377</v>
       </c>
@@ -4781,7 +4851,7 @@
         <v>247918069.013585</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>44408</v>
       </c>
@@ -4810,7 +4880,7 @@
         <v>244487720.28315601</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>44439</v>
       </c>
@@ -4839,7 +4909,7 @@
         <v>239285752.41681299</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>44469</v>
       </c>
@@ -4868,7 +4938,7 @@
         <v>246785696.38642499</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>44500</v>
       </c>
@@ -4897,7 +4967,7 @@
         <v>244064498.42064601</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>44530</v>
       </c>
@@ -4926,7 +4996,7 @@
         <v>237566766.92210299</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>44561</v>
       </c>
@@ -4955,7 +5025,7 @@
         <v>236589213.39245301</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>44592</v>
       </c>
@@ -4984,7 +5054,7 @@
         <v>240162207.27874601</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>44620</v>
       </c>
@@ -5013,7 +5083,7 @@
         <v>239082135.89305201</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>44651</v>
       </c>
@@ -5042,7 +5112,7 @@
         <v>234325594.13583499</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>44681</v>
       </c>
@@ -5071,7 +5141,7 @@
         <v>239187374.64249399</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>44712</v>
       </c>
@@ -5100,7 +5170,7 @@
         <v>239077074.633542</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>44742</v>
       </c>
@@ -5129,7 +5199,7 @@
         <v>231647283.25169501</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>44773</v>
       </c>
@@ -5158,7 +5228,7 @@
         <v>229444799.24517101</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>44804</v>
       </c>
@@ -5187,7 +5257,7 @@
         <v>234091219.45688501</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>44834</v>
       </c>
@@ -5216,7 +5286,7 @@
         <v>235891378.909013</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>44865</v>
       </c>
@@ -5245,7 +5315,7 @@
         <v>233735390.860948</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>44895</v>
       </c>
@@ -5274,7 +5344,7 @@
         <v>229948150.93492001</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>44926</v>
       </c>
@@ -5303,24 +5373,159 @@
         <v>236352066.30905199</v>
       </c>
     </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B126" s="1">
+        <v>180784705.96151</v>
+      </c>
+      <c r="C126" s="1">
+        <v>208451354.063804</v>
+      </c>
+      <c r="D126" s="1">
+        <v>141740179.36608499</v>
+      </c>
+      <c r="E126" s="1">
+        <v>316265633.22135502</v>
+      </c>
+      <c r="F126" s="1">
+        <v>94336691.077735394</v>
+      </c>
+      <c r="G126" s="1">
+        <v>87675846.672789395</v>
+      </c>
+      <c r="H126" s="1">
+        <v>104102401.639566</v>
+      </c>
+      <c r="I126" s="1">
+        <v>242710879.35048401</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B127" s="1">
+        <v>188287640.05966699</v>
+      </c>
+      <c r="C127" s="1">
+        <v>214906234.63191301</v>
+      </c>
+      <c r="D127" s="1">
+        <v>142335576.15364701</v>
+      </c>
+      <c r="E127" s="1">
+        <v>307263312.42034</v>
+      </c>
+      <c r="F127" s="1">
+        <v>96118563.448808596</v>
+      </c>
+      <c r="G127" s="1">
+        <v>92160179.735598594</v>
+      </c>
+      <c r="H127" s="1">
+        <v>104411755.336197</v>
+      </c>
+      <c r="I127" s="1">
+        <v>246988289.36391699</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>45016</v>
+      </c>
+      <c r="B128" s="1">
+        <v>178949443.485396</v>
+      </c>
+      <c r="C128" s="1">
+        <v>214643979.962116</v>
+      </c>
+      <c r="D128" s="1">
+        <v>146750377.946183</v>
+      </c>
+      <c r="E128" s="1">
+        <v>282122813.26510102</v>
+      </c>
+      <c r="F128" s="1">
+        <v>88952528.607590199</v>
+      </c>
+      <c r="G128" s="1">
+        <v>92360107.182299599</v>
+      </c>
+      <c r="H128" s="1">
+        <v>103546037.84567501</v>
+      </c>
+      <c r="I128" s="1">
+        <v>173435749.60878599</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>45046</v>
+      </c>
+      <c r="B129" s="1">
+        <v>184310613.86393601</v>
+      </c>
+      <c r="C129" s="1">
+        <v>222068595.23519501</v>
+      </c>
+      <c r="D129" s="1">
+        <v>152363046.11930501</v>
+      </c>
+      <c r="E129" s="1">
+        <v>286207189.90463501</v>
+      </c>
+      <c r="F129" s="1">
+        <v>-6943.3826987800003</v>
+      </c>
+      <c r="G129" s="1">
+        <v>91116573.141908795</v>
+      </c>
+      <c r="H129" s="1">
+        <v>104338460.72322799</v>
+      </c>
+      <c r="I129" s="1">
+        <v>177514066.56929901</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>45077</v>
+      </c>
+      <c r="B130" s="1">
+        <v>190828254.01556101</v>
+      </c>
+      <c r="C130" s="1">
+        <v>208983227.782747</v>
+      </c>
+      <c r="D130" s="1">
+        <v>137506376.799243</v>
+      </c>
+      <c r="E130" s="1">
+        <v>288646374.335446</v>
+      </c>
+      <c r="F130" s="1">
+        <v>-5385.8246925499998</v>
+      </c>
+      <c r="G130" s="1">
+        <v>90841064.354998395</v>
+      </c>
+      <c r="H130" s="1">
+        <v>104639252.57243399</v>
+      </c>
+      <c r="I130" s="1">
+        <v>174350373.907695</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1 A16:A125">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
+  <conditionalFormatting sqref="A1:A130">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:I125">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
-      <formula>LEN(TRIM(B16))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A15">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:I15">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+  <conditionalFormatting sqref="B2:I130">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
